--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.256</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.855</v>
+        <v>16.929</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.305</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.217</v>
+        <v>14.98</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.425</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.859</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.10377084865048</v>
+        <v>1.202979984862633</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.88392305366604</v>
+        <v>11.62052400036849</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.03486227491795</v>
+        <v>10.50741720140654</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.02449970209735</v>
+        <v>10.63989608974091</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.00967050612018</v>
+        <v>15.12057080066567</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.87353037772838</v>
+        <v>25.80311998433758</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.10410538331933</v>
+        <v>2.666703009287868</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.88426540244257</v>
+        <v>21.14198598551983</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.03521886997543</v>
+        <v>30.71737792088207</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.02485745412816</v>
+        <v>30.31418590505721</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.01000760137985</v>
+        <v>22.00319593404397</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.87387530480213</v>
+        <v>41.32836567627757</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.10422249557967</v>
+        <v>-2.004805987313819</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.88438045243655</v>
+        <v>16.23137284992522</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.03533863745752</v>
+        <v>25.37846011880142</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31.02497689608642</v>
+        <v>26.5537107776133</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.01012470872264</v>
+        <v>14.74348055358619</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.87399031692079</v>
+        <v>33.04289333629877</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.1040653233859</v>
+        <v>-1.95885611468201</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.88422775711035</v>
+        <v>16.25692712885943</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.03518127871025</v>
+        <v>22.22747912530671</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.02481962692664</v>
+        <v>24.27588035146823</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.0099686139637</v>
+        <v>12.91598876411566</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.87383877857135</v>
+        <v>30.14550374244002</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.90959220884419</v>
+        <v>24.7689593320545</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.02695941371838</v>
+        <v>27.62347946714844</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.94084744634195</v>
+        <v>9.298724279762606</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>39.94942619272698</v>
+        <v>23.71841131688241</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.80079380050461</v>
+        <v>27.37385717802627</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43.93212903744407</v>
+        <v>30.7697537252483</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.9099511577143</v>
+        <v>49.48912711957487</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.02731961835991</v>
+        <v>52.68738515779918</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.94119126630676</v>
+        <v>24.70976162743466</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.94977793858101</v>
+        <v>48.31823324350992</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.80115984305532</v>
+        <v>62.3320576874163</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.93249629754763</v>
+        <v>65.36746302020495</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.91007089610105</v>
+        <v>40.06429981717872</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.02743902951168</v>
+        <v>45.45147318785136</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.94130712822138</v>
+        <v>18.81893832223833</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.94989170476005</v>
+        <v>41.92617940608685</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.80127811316173</v>
+        <v>55.18782845039897</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43.93261420538784</v>
+        <v>60.25746942244015</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.90991480565283</v>
+        <v>32.71871434571433</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.02728303573083</v>
+        <v>38.62770875253872</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.9411495889597</v>
+        <v>18.26695723913266</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>39.94973873902163</v>
+        <v>40.5907420851631</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.80112086977797</v>
+        <v>49.70777620374355</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>43.93245709272114</v>
+        <v>55.77371784434567</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.45652879239593</v>
+        <v>18.37435033997073</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.43737467394499</v>
+        <v>37.14167883262692</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.45452910628038</v>
+        <v>35.36530575927068</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.44051995436659</v>
+        <v>36.2767875287376</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>18.63984427072409</v>
+        <v>16.12120370250087</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.7021169428253</v>
+        <v>34.2286484662275</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>15.45686102059343</v>
+        <v>16.73283586499792</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.43771474994874</v>
+        <v>43.52385469640073</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.45488325534509</v>
+        <v>51.68265296430033</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.44087524437435</v>
+        <v>51.71913887696536</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>18.64017894680319</v>
+        <v>19.04930870473519</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.702459485331</v>
+        <v>45.77071696973708</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.45697683170247</v>
+        <v>15.9070716310114</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.43782844706736</v>
+        <v>42.40541507337903</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.4550016592966</v>
+        <v>50.55062233756834</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.44099332224594</v>
+        <v>51.99868737547804</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.64029491678477</v>
+        <v>15.21432116816737</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.70257330908198</v>
+        <v>40.88962071454935</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.4568229492895</v>
+        <v>16.36590885829025</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.43767913363068</v>
+        <v>42.60630363492224</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.45484769930649</v>
+        <v>48.31005719076322</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.44083947608004</v>
+        <v>50.82661939366724</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.64014169707664</v>
+        <v>13.29611980514653</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.70242473621321</v>
+        <v>37.63746664270418</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.59878733615093</v>
+        <v>31.42694174432958</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.70749947943867</v>
+        <v>34.20053302004298</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.7670482172053</v>
+        <v>12.8594317314308</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>41.96243195380676</v>
+        <v>35.91197283476566</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.68811924863641</v>
+        <v>37.11419289570674</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.81159402687496</v>
+        <v>40.83848453655743</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.59914373132973</v>
+        <v>51.38219796327867</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.70785711300767</v>
+        <v>54.12688441093584</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.76738955491573</v>
+        <v>23.05770888036157</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>41.96278124998487</v>
+        <v>55.26880757785941</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.68848267607281</v>
+        <v>66.01984629675178</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.81195865277876</v>
+        <v>69.01993745698267</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>34.59926227210359</v>
+        <v>45.75062345062435</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.70797532704369</v>
+        <v>50.48265396444582</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.76750421471591</v>
+        <v>20.29719806845067</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>41.96289376688954</v>
+        <v>51.96751465578633</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.68859968545853</v>
+        <v>62.35209730105348</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>45.8120752998411</v>
+        <v>67.19184463826662</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.59910915841404</v>
+        <v>38.83872113854987</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.70782233222474</v>
+        <v>44.31355073006526</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.76734978606256</v>
+        <v>20.72884563079755</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.96274399684433</v>
+        <v>51.38114979906292</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.68844565752708</v>
+        <v>58.41474777912475</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.81192142532808</v>
+        <v>64.43150604802521</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.64643497757951</v>
+        <v>16.97342936858108</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.63799758234664</v>
+        <v>34.05260411165438</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.66581396412914</v>
+        <v>33.58386133215699</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.63493979647979</v>
+        <v>33.35623117666877</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>18.0745541835958</v>
+        <v>19.08658938493053</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.1510755482472</v>
+        <v>36.54534015334873</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.6467679884962</v>
+        <v>16.80803316153972</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.63833845416656</v>
+        <v>41.9713996364793</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.66616895557241</v>
+        <v>51.6183589156783</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>32.63529592527124</v>
+        <v>50.51646338066207</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>18.07488968221535</v>
+        <v>23.32738184711208</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.15141892629731</v>
+        <v>49.45853876174233</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.64688438910517</v>
+        <v>14.76007283049817</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.63845274179163</v>
+        <v>39.72916759561552</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.66628795732513</v>
+        <v>49.24726734280351</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.63541460545237</v>
+        <v>49.53919390440392</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18.07500617904067</v>
+        <v>18.91854770139726</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.15153327683458</v>
+        <v>44.09681752663869</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>14.64672943371362</v>
+        <v>15.83786529403978</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.63830234976133</v>
+        <v>40.66302041726659</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.66613289490594</v>
+        <v>47.71649193514023</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.63525965064061</v>
+        <v>49.01754334770628</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.0748520071925</v>
+        <v>17.62465316859049</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.15138374824657</v>
+        <v>41.57884338044481</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.06595220553315</v>
+        <v>36.03251442723145</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.15737156903224</v>
+        <v>37.61301139957196</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>26.17230487727458</v>
+        <v>14.85504558376634</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.38100240967161</v>
+        <v>37.28477658924166</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.12252001014475</v>
+        <v>40.9726217987965</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.2296489698641</v>
+        <v>43.59143489737372</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>34.06630948492062</v>
+        <v>57.56507823975028</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.15773008304448</v>
+        <v>59.12385065680574</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.17264701785841</v>
+        <v>26.27433794917544</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.38135252224178</v>
+        <v>57.91939845840065</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.12288429715579</v>
+        <v>71.35385131575939</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>45.23001445193439</v>
+        <v>73.25043129547942</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.06642855857099</v>
+        <v>51.35313951453884</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.15784883448143</v>
+        <v>54.87639688434439</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.17276220176283</v>
+        <v>22.6537769515434</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>41.38146556372914</v>
+        <v>53.86221401098321</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43.12300183499239</v>
+        <v>66.83225618058043</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.23013163191884</v>
+        <v>70.54388255433173</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>34.06627446809761</v>
+        <v>45.12561172421502</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>36.15769485663294</v>
+        <v>49.32457090997312</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.17260682962462</v>
+        <v>23.49972974863458</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.38131484570754</v>
+        <v>53.80775098645351</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.12284684095214</v>
+        <v>63.38677993418969</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>45.22997678541916</v>
+        <v>68.21139650375467</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12.34544717696965</v>
+        <v>2.427841356489179</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.01942876231485</v>
+        <v>11.36133526510065</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.15211655685751</v>
+        <v>11.44598740398113</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.12664204708724</v>
+        <v>11.90545211672163</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.22297562137604</v>
+        <v>13.00112808646676</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.98144213232375</v>
+        <v>22.3279879022601</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12.34577997686451</v>
+        <v>7.09207116686461</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.01976932248424</v>
+        <v>24.0107539744579</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.15247130693328</v>
+        <v>34.79975149158601</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.12699794439306</v>
+        <v>34.69924371880579</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.22331094310583</v>
+        <v>23.79318153931071</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.98178523205414</v>
+        <v>41.70834071336333</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.34589679566266</v>
+        <v>2.354013864179944</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.01988409584149</v>
+        <v>19.05016364408814</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.15259078283319</v>
+        <v>29.35242125707725</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.12711709583859</v>
+        <v>30.79339209907937</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>16.223427756977</v>
+        <v>16.35056001409303</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.98189996750783</v>
+        <v>33.25887288239556</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.34573987084776</v>
+        <v>0.6791848334021147</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.01973161081212</v>
+        <v>17.3889077360718</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.15243363791406</v>
+        <v>24.47808182518389</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.12696004162192</v>
+        <v>26.84374168284691</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.22327192602275</v>
+        <v>12.07485003417021</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.98174865576228</v>
+        <v>27.92596214703161</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.99622905272891</v>
+        <v>20.94229344565899</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.0978735757807</v>
+        <v>24.27104911824405</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.12520360676029</v>
+        <v>7.502195644124452</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>39.02873640896861</v>
+        <v>20.61007975419781</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.85906447452368</v>
+        <v>24.55900710733713</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.97460867084379</v>
+        <v>28.36308216763943</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.99658611789729</v>
+        <v>49.55977424613565</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.09823188620371</v>
+        <v>53.20720642328929</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.12554566259335</v>
+        <v>26.22581335952691</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.02908633616076</v>
+        <v>48.4478851787995</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>40.85942864559709</v>
+        <v>62.80332920185711</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.97497404941936</v>
+        <v>66.22901933290007</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.99670556509656</v>
+        <v>39.91829708829034</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.09835100716244</v>
+        <v>45.71302450395811</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.12566123703422</v>
+        <v>20.00731876557397</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>39.02919983068043</v>
+        <v>41.73703352767838</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>40.85954663127441</v>
+        <v>55.28595780266158</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>42.97509167410276</v>
+        <v>60.7113500083705</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.99654970179316</v>
+        <v>30.09700823185791</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.09819524207903</v>
+        <v>36.46649968572603</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.12550394372313</v>
+        <v>16.97407808163764</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.02904707483225</v>
+        <v>37.95117279593667</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.85938959705457</v>
+        <v>47.28887983935012</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.97493477151447</v>
+        <v>53.75142159791066</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.27394611827372</v>
+        <v>15.50686631408349</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.09720014842591</v>
+        <v>32.92359471623398</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.36071103002069</v>
+        <v>33.26721673923969</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.33952702208505</v>
+        <v>32.5752208176215</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.15794908928337</v>
+        <v>20.01554572261629</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.05952239776637</v>
+        <v>37.00946816330493</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.27428060697221</v>
+        <v>19.36156495105116</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.09754244581342</v>
+        <v>44.80983972149618</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.36106756409141</v>
+        <v>55.93523795721431</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.33988470154502</v>
+        <v>54.58008026895006</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.15828609342759</v>
+        <v>27.93925850009664</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.05986722667456</v>
+        <v>53.54110886150588</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>17.27439623811334</v>
+        <v>18.45649969130069</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.09765599912137</v>
+        <v>43.76953933651187</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.3611857977567</v>
+        <v>54.61463534581677</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.34000260793839</v>
+        <v>54.72565413358879</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.15840172161762</v>
+        <v>23.86879650483148</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.0599807455959</v>
+        <v>48.56636466491888</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.27424085351065</v>
+        <v>20.06323908955734</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>32.0975051164932</v>
+        <v>45.49319357618334</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.36103028275124</v>
+        <v>53.19979815442075</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.33984719047044</v>
+        <v>54.26847221488785</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.1582474389903</v>
+        <v>23.40520157300895</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.05983104098616</v>
+        <v>47.15697623782306</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.21555218857824</v>
+        <v>38.05654801521719</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.31932962357085</v>
+        <v>39.65423733364962</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.8222863066526</v>
+        <v>11.966604233932</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>43.8642540974726</v>
+        <v>32.56055675373416</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>45.82607573786909</v>
+        <v>38.31849121614792</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.94521367610248</v>
+        <v>40.75528331335673</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>37.21591103070138</v>
+        <v>63.89761921265008</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>39.31968970837904</v>
+        <v>65.70465709562652</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.82262984916094</v>
+        <v>27.47768577629415</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.86460555703373</v>
+        <v>57.21380086949833</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>45.82644148355864</v>
+        <v>73.41476769442045</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>47.94558062647963</v>
+        <v>75.35858044357772</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.2160292358094</v>
+        <v>57.90822824933491</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.82274424509524</v>
+        <v>24.29932689306785</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>43.86471784331618</v>
+        <v>53.64163983501763</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>45.82655823671983</v>
+        <v>69.2077669443542</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>47.94569701585457</v>
+        <v>73.06230863602045</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>37.21587501475727</v>
+        <v>52.06609227967733</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.31965346800237</v>
+        <v>56.54859495508546</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.82258849220138</v>
+        <v>25.58189596063104</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.86456668518228</v>
+        <v>54.27738233874047</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.82640283257518</v>
+        <v>65.73513967723869</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>47.9455417501849</v>
+        <v>70.67636807566268</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>13.03896398195549</v>
+        <v>13.60767710355493</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.84528253019553</v>
+        <v>35.19092867220482</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.83626624983819</v>
+        <v>34.00770750339096</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.77310085748785</v>
+        <v>33.25633418827438</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.66918826916449</v>
+        <v>16.70234807088039</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.55998999125618</v>
+        <v>37.97382872515834</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>13.03929038302566</v>
+        <v>15.32250898918818</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.8456166665795</v>
+        <v>44.66591202172199</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.8366143124492</v>
+        <v>53.77422456041612</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.77345003244407</v>
+        <v>52.16453193359246</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>16.66951718719638</v>
+        <v>22.28615058758326</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.56032666444984</v>
+        <v>51.90714268529268</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.03940473214413</v>
+        <v>14.52092010621267</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.84572891779962</v>
+        <v>43.79426587483461</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.83673121942765</v>
+        <v>52.84131112696393</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.77356662071999</v>
+        <v>52.55836174983162</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.66963158297659</v>
+        <v>18.26158176628573</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.56043892992785</v>
+        <v>47.08156987302524</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>13.03925204946772</v>
+        <v>16.32033606093776</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.8455807563447</v>
+        <v>45.62176710456815</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.8365784542682</v>
+        <v>51.81316114530235</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.77341396378603</v>
+        <v>52.5732154192157</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.66947978170748</v>
+        <v>17.0966820069444</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.56029172813025</v>
+        <v>44.85436893735405</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.44709159631505</v>
+        <v>36.65336394475703</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.50606678001793</v>
+        <v>37.62235527635308</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.74725713245515</v>
+        <v>10.61611026195909</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>39.76732857856062</v>
+        <v>35.68561829756</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.46369253970822</v>
+        <v>38.46948860164436</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>43.53747384488653</v>
+        <v>40.4802859481569</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.44744197697491</v>
+        <v>59.38346478155455</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.50641836877367</v>
+        <v>60.31478577333205</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.7475926904877</v>
+        <v>23.3038231331099</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>41.46404992436982</v>
+        <v>69.89521324617404</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>43.53783239999282</v>
+        <v>71.20056405465645</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.44755890247725</v>
+        <v>53.74550106025889</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.50653497459987</v>
+        <v>56.56331714286716</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.74770579066744</v>
+        <v>20.30986192534034</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>39.76778295424362</v>
+        <v>53.91633035730192</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>41.46416533745292</v>
+        <v>66.1501642934516</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>43.53794745902315</v>
+        <v>69.19983325729288</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.44740720945188</v>
+        <v>47.45796398002591</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.50638339590101</v>
+        <v>51.00244153633506</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.74755277965054</v>
+        <v>21.56137347962783</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.76763455318633</v>
+        <v>54.42687167892751</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>41.46401272130529</v>
+        <v>62.91871226897159</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>43.53779499017779</v>
+        <v>67.12590864017278</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8.158089650270771</v>
+        <v>-1.090623102089001</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.83484291658151</v>
+        <v>7.476526352396856</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.77353322033269</v>
+        <v>8.228537792242928</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.70879198901915</v>
+        <v>8.365132025677848</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>11.85422548809694</v>
+        <v>13.34462360163061</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.62660769289164</v>
+        <v>22.75965819977489</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>8.158416471245639</v>
+        <v>-1.245311391939314</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.83517745914902</v>
+        <v>15.19256377062404</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>23.7738816964227</v>
+        <v>25.91466293068052</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.70914159460763</v>
+        <v>25.35422879243196</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>11.85455488808169</v>
+        <v>18.49693341722194</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.62694483659995</v>
+        <v>36.33300810560289</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>8.158532733059397</v>
+        <v>-5.150736364618286</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.83529165849561</v>
+        <v>11.10604519640726</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.774000576424</v>
+        <v>21.51251918113753</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.70926016391544</v>
+        <v>22.3885863686246</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>11.85467117961323</v>
+        <v>12.57423558251488</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.6270590301195</v>
+        <v>29.48392071536398</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>8.15837758633268</v>
+        <v>-5.718731566327822</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.83514096196599</v>
+        <v>10.39540338203328</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>23.77384528597526</v>
+        <v>18.17848898134589</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.70910496262752</v>
+        <v>19.93332982910936</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>11.85451689042057</v>
+        <v>10.12525119918879</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.62690927624934</v>
+        <v>25.88036034148098</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.44871300554461</v>
+        <v>22.44501752343463</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.50889927209035</v>
+        <v>24.88673124251541</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>20.15687650040569</v>
+        <v>10.27142435632835</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.06359183433419</v>
+        <v>24.07263676546263</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.70356649457666</v>
+        <v>28.00815452863425</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.7780158233788</v>
+        <v>31.06577720131866</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.44906386347896</v>
+        <v>44.53158824562473</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.50925135694894</v>
+        <v>47.11314457632368</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>20.15721269641524</v>
+        <v>23.13088671083817</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>35.06393586580761</v>
+        <v>45.88713721761361</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.70392451340553</v>
+        <v>59.44176804757008</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.77837503137009</v>
+        <v>61.96003059343472</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.44918274632866</v>
+        <v>36.67229858334348</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.50936992770035</v>
+        <v>41.26494418453819</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>20.15732767245693</v>
+        <v>18.36371934678324</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.06404874656543</v>
+        <v>40.70057862584289</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.7040418600661</v>
+        <v>53.60578984102021</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.77849203149713</v>
+        <v>57.98373938264683</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.44902850006662</v>
+        <v>29.22939195694704</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.50921577738971</v>
+        <v>34.36004276024292</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>20.15717220320876</v>
+        <v>18.33687691499824</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.06389782390981</v>
+        <v>39.81653267618009</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.70388672762804</v>
+        <v>49.1876218889531</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.77833702795591</v>
+        <v>54.54214791323142</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>11.65379582405444</v>
+        <v>-0.832644897924812</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.53840994887168</v>
+        <v>5.015633997940579</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.62770202990764</v>
+        <v>3.750323625796181</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.61905030606458</v>
+        <v>4.469198661477588</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>15.52251570984953</v>
+        <v>1.981135014117694</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.49017740163738</v>
+        <v>7.587925211687345</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>11.65413047766247</v>
+        <v>-4.921242105524929</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.53875244563496</v>
+        <v>8.786688972863868</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.62805879480722</v>
+        <v>18.01126864571398</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.61940822581412</v>
+        <v>18.11574346259291</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.52285287639733</v>
+        <v>1.647299948432089</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.49052242924073</v>
+        <v>15.69866561874697</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.65424820135008</v>
+        <v>-7.853828465376186</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.538868084067</v>
+        <v>5.647415605410512</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>27.62817918284744</v>
+        <v>14.48728411849315</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.6195282872738</v>
+        <v>16.06727484176221</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.52297059730105</v>
+        <v>-4.043233289185725</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.49063803224765</v>
+        <v>9.030213869267097</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>11.65408985588946</v>
+        <v>-7.59488474311701</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.53871425167196</v>
+        <v>5.945459140557798</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.62802063414797</v>
+        <v>11.62629062647667</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.61936983605509</v>
+        <v>14.15079749224477</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>15.5228133404493</v>
+        <v>-5.164516538249419</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>30.49048536714507</v>
+        <v>6.882170974481507</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.46972073691621</v>
+        <v>6.168881199378543</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.58719892849139</v>
+        <v>9.492963563662695</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.4447371022247</v>
+        <v>0.008473592240132888</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>38.55565492426702</v>
+        <v>9.486142340878214</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>40.35392670482453</v>
+        <v>12.61806062837848</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>42.48751472645267</v>
+        <v>17.26155317687769</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.47007980696753</v>
+        <v>23.29504350739721</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.58755925138735</v>
+        <v>26.87711025508852</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.44508100712547</v>
+        <v>7.494889236522877</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.55600678384127</v>
+        <v>25.96254480238765</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.35429288707876</v>
+        <v>39.22837830304071</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.48788212412911</v>
+        <v>43.44840356856439</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.47020016595071</v>
+        <v>15.5082786134443</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.58767928243967</v>
+        <v>21.16103266854182</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.44519747952889</v>
+        <v>2.737872227574112</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.55612113800474</v>
+        <v>20.7410398530545</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>40.35441177556584</v>
+        <v>33.27863690334091</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>42.48800064908492</v>
+        <v>39.42244071734032</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.47004290002064</v>
+        <v>8.945674582718748</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.58752212105328</v>
+        <v>15.19226017138049</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.44503878087438</v>
+        <v>3.29957670326392</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>38.55596704857801</v>
+        <v>20.57404038397375</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>40.35425335966141</v>
+        <v>29.00416996050494</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>42.48784237163188</v>
+        <v>36.20693501484824</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>15.81340917694601</v>
+        <v>16.04945705872374</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.78310234585938</v>
+        <v>35.71016817519028</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.95958209624837</v>
+        <v>37.44726664621312</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.90670974885938</v>
+        <v>37.5288604093335</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>19.09599658492705</v>
+        <v>10.45953253245575</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.14832945971656</v>
+        <v>29.08240520145787</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>15.81374042023966</v>
+        <v>18.85400801292395</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.78344142902591</v>
+        <v>46.36988918436781</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.9599353022083</v>
+        <v>58.45804737144117</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.90706407516135</v>
+        <v>57.75277126645518</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.09633028143301</v>
+        <v>17.48868284895645</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.14867101533946</v>
+        <v>44.52145733154858</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>15.81385563436168</v>
+        <v>15.84691687509226</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.78355453058319</v>
+        <v>43.27603200371072</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>31.96005306548015</v>
+        <v>55.16086761114593</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.90718151939195</v>
+        <v>55.84741699620281</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.09644563157454</v>
+        <v>11.72942181299311</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.14878422047969</v>
+        <v>37.92361346889649</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>15.81370243117236</v>
+        <v>15.65871951463367</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.78340588417753</v>
+        <v>42.96809185949618</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.95989983897181</v>
+        <v>52.12111507348114</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.90702840017212</v>
+        <v>53.75751067526555</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.0962931150955</v>
+        <v>8.625921298699932</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.14863633883579</v>
+        <v>33.66147748385617</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>35.21198304568206</v>
+        <v>29.91904793561386</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>37.28057687809441</v>
+        <v>31.9032343309948</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.21734749507861</v>
+        <v>8.325653349981987</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>42.40058208291207</v>
+        <v>31.2726425438952</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>44.27718943940847</v>
+        <v>36.05444834508039</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>46.3614938641571</v>
+        <v>39.0356903744339</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.21233850314405</v>
+        <v>54.22048226368614</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>37.28093355226498</v>
+        <v>56.24789953291527</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.21768782369999</v>
+        <v>21.98402953471246</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.4009303614225</v>
+        <v>53.86601644497105</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.27755188877957</v>
+        <v>68.58448816841461</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>46.36185749183848</v>
+        <v>70.92994739924565</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.21245637845281</v>
+        <v>46.6915008121894</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.28105110780567</v>
+        <v>50.67846715559595</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.21780184939898</v>
+        <v>17.31134163764004</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.40104224552739</v>
+        <v>48.85229050644536</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>44.27766821866857</v>
+        <v>63.02040975409322</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>46.36197346690557</v>
+        <v>67.17765481703967</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.21230402621215</v>
+        <v>38.44167352874997</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>37.2808988678069</v>
+        <v>43.05546961809334</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.21764812717373</v>
+        <v>16.97631481560134</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>42.40089316902541</v>
+        <v>47.66354813134937</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>44.27751495130131</v>
+        <v>58.18353594566952</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>46.36182034597245</v>
+        <v>63.40339324415486</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>5.763569969911702</v>
+        <v>-0.8871586023204578</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.2969921852486</v>
+        <v>4.751505603460327</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.05444011867235</v>
+        <v>3.198708885151003</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.01370375108648</v>
+        <v>4.335107155048089</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>9.34401182463993</v>
+        <v>3.806010102891431</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.9719840306111</v>
+        <v>9.988308669656146</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>5.763895231044158</v>
+        <v>0.7887481413638362</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.29732509800893</v>
+        <v>14.27832541151914</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.05478683824408</v>
+        <v>22.56044114091707</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.01405161851142</v>
+        <v>23.06183758089896</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>9.344339647128269</v>
+        <v>10.83750935881815</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.97231952700822</v>
+        <v>25.42025842226655</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>5.764011863967019</v>
+        <v>-3.480970591690554</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.29743968769226</v>
+        <v>9.67183472833133</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.05490613014342</v>
+        <v>17.6987899344608</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.0141705982174</v>
+        <v>19.73843869726154</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>9.344456336037014</v>
+        <v>3.727475494992628</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>23.97243413758182</v>
+        <v>17.22513194704075</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>5.763856296124846</v>
+        <v>-6.923961886327195</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.29728853771812</v>
+        <v>6.007631243579649</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.05475032159302</v>
+        <v>11.30358462035353</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.01401487783349</v>
+        <v>14.23747460318127</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.344301619777228</v>
+        <v>-2.510065705443342</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.97228392386451</v>
+        <v>9.764580215134284</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.61283354662062</v>
+        <v>7.367273754462499</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.69666067772032</v>
+        <v>10.80240991123273</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.64845023154797</v>
+        <v>3.465193817872855</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.40993618947121</v>
+        <v>13.65533425022761</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.87482036923458</v>
+        <v>15.36303600658567</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.9736672751805</v>
+        <v>19.90975949542077</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.61318263273472</v>
+        <v>31.1723280114567</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.69701100913458</v>
+        <v>34.81722930943941</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>17.64878482246838</v>
+        <v>18.69717417421002</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.41027854454137</v>
+        <v>37.81133435595962</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.87517659433162</v>
+        <v>49.05840567697794</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.97402470798603</v>
+        <v>53.14753421619579</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.61330195415002</v>
+        <v>22.01865760604477</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.69713001716812</v>
+        <v>27.78333022981328</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>17.6489002037221</v>
+        <v>12.91579708193889</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.41039185007939</v>
+        <v>31.44513505347811</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.87529439039037</v>
+        <v>42.11355173283222</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.97414215589782</v>
+        <v>48.18000444948473</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.61314718495132</v>
+        <v>10.60009741687537</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.69697534255985</v>
+        <v>16.91773220090434</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.64874435334372</v>
+        <v>8.645051605523985</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.41024051427952</v>
+        <v>26.26047883794383</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.87513878194167</v>
+        <v>33.2344528867047</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.97398667490837</v>
+        <v>40.2928605837338</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>11.45677271490142</v>
+        <v>-5.818487617260391</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.2831937560036</v>
+        <v>3.333934295966525</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.15434426172237</v>
+        <v>0.3673318356581028</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.10882529036503</v>
+        <v>0.2230432443848223</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.24100285246339</v>
+        <v>19.07406644689584</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.15511174105617</v>
+        <v>30.35462488183586</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>11.45710120400626</v>
+        <v>-9.612789157611022</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.28353000770054</v>
+        <v>7.457615886419472</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.15469444783453</v>
+        <v>14.35928283859152</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.10917660429314</v>
+        <v>13.29254945690684</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>15.24133393663901</v>
+        <v>20.17863126710011</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.15545060768343</v>
+        <v>39.99067782803534</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>11.4572170362883</v>
+        <v>-9.628275067048438</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.2836437435965</v>
+        <v>7.258182872383951</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.15481288685275</v>
+        <v>14.12139747847716</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.10929472339773</v>
+        <v>14.40566678272699</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>15.24144978355227</v>
+        <v>17.58770288259431</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.1555643248735</v>
+        <v>36.4765689818807</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>11.45706221348768</v>
+        <v>-7.686095219955437</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.28349344126185</v>
+        <v>9.147937207381343</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.15465790025508</v>
+        <v>13.55853959823021</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.10913984454502</v>
+        <v>14.90878240893573</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.24129591814962</v>
+        <v>16.91473074382099</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.15541506023021</v>
+        <v>34.65869779149418</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.92414533220721</v>
+        <v>27.8570613439998</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.0013157562941</v>
+        <v>29.22386511314704</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.33751979491275</v>
+        <v>15.06666754801827</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.38299953975746</v>
+        <v>31.39562640906733</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>39.97402714232395</v>
+        <v>33.15917903248061</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>42.06689596763573</v>
+        <v>35.70813903795759</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.92449792012677</v>
+        <v>45.89130553166265</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.00166956882855</v>
+        <v>47.1703393439758</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.33785752110396</v>
+        <v>24.05189236312799</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>38.38334514035334</v>
+        <v>49.46072866584885</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>39.97438674152033</v>
+        <v>60.77072456602329</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.06725675226244</v>
+        <v>62.53483974791919</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.92461634630975</v>
+        <v>41.60983680125817</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.00178767424149</v>
+        <v>44.80119282212164</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.33797206415788</v>
+        <v>22.32552711322699</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.38345755724878</v>
+        <v>47.31865598919488</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>39.97450364467182</v>
+        <v>58.24740458860468</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.06737329927054</v>
+        <v>61.77697825279165</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.92446250910014</v>
+        <v>36.12557021522294</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.00163395058934</v>
+        <v>40.05827356071285</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.33781702093545</v>
+        <v>23.49691986143331</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.3833071254564</v>
+        <v>47.67234029964814</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.97434892196411</v>
+        <v>55.23052596694163</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>42.06721872471721</v>
+        <v>59.93658029298339</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>6.973778104315294</v>
+        <v>5.588015997083058</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>21.54931641520462</v>
+        <v>10.97927523959119</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.42838672184645</v>
+        <v>10.25928572599419</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.35754817908757</v>
+        <v>11.09193774655285</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.19730918702611</v>
+        <v>1.189656822686057</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>24.86348080734399</v>
+        <v>6.606490413457291</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>6.97410439848251</v>
+        <v>2.034946843038224</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.54965038731065</v>
+        <v>15.22767867550577</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.42873458768834</v>
+        <v>24.41484079487061</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.35789717093629</v>
+        <v>24.45767667444842</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>10.19763784995445</v>
+        <v>1.755044490052523</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.86381716787171</v>
+        <v>15.53785526746166</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>6.974221283737728</v>
+        <v>-0.4455672223962956</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.54976523056945</v>
+        <v>12.4668458542517</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.42885412564602</v>
+        <v>21.49541250008496</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.35801639875503</v>
+        <v>22.96254211772687</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.19775482454356</v>
+        <v>-3.068803439020957</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>24.86393206578185</v>
+        <v>9.680713731239546</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.974065650374202</v>
+        <v>-0.286782576083457</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.54961400928368</v>
+        <v>12.47156536719676</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.42869827650852</v>
+        <v>18.91617835979089</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.35786064483456</v>
+        <v>21.38304444636242</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.19759990886672</v>
+        <v>-4.092328102039719</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.86378164497409</v>
+        <v>7.45497281865843</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.61757652511604</v>
+        <v>4.596238150289704</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.67055322522326</v>
+        <v>7.214817194979954</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.64057180913591</v>
+        <v>6.822913455684738</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.44655809402374</v>
+        <v>17.34268745617689</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.02769786380949</v>
+        <v>20.0979325348583</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>37.09477705213634</v>
+        <v>23.58631181833911</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.61792655921829</v>
+        <v>21.93939862236386</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.67090448271921</v>
+        <v>24.60752321926884</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.6409073427482</v>
+        <v>15.99481662215288</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.44690141933255</v>
+        <v>35.41217410616292</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.02805514381958</v>
+        <v>47.75477490118499</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>37.09513551640993</v>
+        <v>50.60547595017586</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.61804616188497</v>
+        <v>15.21946572896823</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.67102377417137</v>
+        <v>19.88003624644764</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.64102298341522</v>
+        <v>12.0949739084555</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.44701498516197</v>
+        <v>30.99068183657115</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.02817319079473</v>
+        <v>42.83866541483948</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>37.09525321715677</v>
+        <v>47.5361408907351</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.61789121281041</v>
+        <v>9.197551579492224</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.67086892691466</v>
+        <v>14.52029663732793</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.64086695751246</v>
+        <v>11.88607637609381</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.44686346793581</v>
+        <v>29.90389472767427</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.02801742594936</v>
+        <v>38.21114878098287</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.09509758782344</v>
+        <v>44.00716017931563</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>2.849690600735528</v>
+        <v>-3.077125717170691</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.26726016248357</v>
+        <v>-1.597807102428437</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.97637829826792</v>
+        <v>-3.425517747869595</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.88213334984182</v>
+        <v>-3.986203228669854</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.28253251058926</v>
+        <v>-3.173017342548906</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.79192160698895</v>
+        <v>-1.599971502324255</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>2.850012391134211</v>
+        <v>-7.740586463744354</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.26758953753865</v>
+        <v>1.311781370592623</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.97672139403081</v>
+        <v>9.137826952293519</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19.88247755785013</v>
+        <v>7.775375770261714</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.282856741848946</v>
+        <v>-4.055918537217597</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.79225344349548</v>
+        <v>5.659771760549798</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.850128941712743</v>
+        <v>-8.551074273376148</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.2677040626675</v>
+        <v>0.166312538675438</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>17.97684060696741</v>
+        <v>7.842958454363224</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.88259646316688</v>
+        <v>7.870089313020397</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>6.282973349891231</v>
+        <v>-7.093563551235309</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.79236799154495</v>
+        <v>1.543252336082926</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2.849972770448396</v>
+        <v>-7.903843082076822</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>17.26755225939227</v>
+        <v>0.8116259883887231</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>17.97668414214326</v>
+        <v>6.046449391450292</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>19.8824400884451</v>
+        <v>7.077778217731176</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.282817995201604</v>
+        <v>-7.493504477351923</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.79221708744314</v>
+        <v>0.09136822398445688</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.38340915925735</v>
+        <v>-4.575123172945712</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.41199854211665</v>
+        <v>-3.535604868016183</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.71570030056045</v>
+        <v>1.128394095102376</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.36254419822905</v>
+        <v>7.833633946723989</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.7869698086799</v>
+        <v>9.838776298597008</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.82963208388855</v>
+        <v>11.83402656542695</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.38375450007479</v>
+        <v>10.8499084044061</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.41234509146245</v>
+        <v>11.91722068787939</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>14.71603141229349</v>
+        <v>9.216596972693434</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.36288300746889</v>
+        <v>24.59198097996322</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.78732241124126</v>
+        <v>35.95745241574066</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.82998585644874</v>
+        <v>37.29965913643022</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.38387374462286</v>
+        <v>5.890763547231412</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.41246402725069</v>
+        <v>8.905246884153339</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.71614671484648</v>
+        <v>7.067963247070363</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.36299625163359</v>
+        <v>21.86965099271434</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.78744013110465</v>
+        <v>32.76139158268654</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.83010323296626</v>
+        <v>35.91334910535808</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.38371828024672</v>
+        <v>0.8252716501331143</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.41230865953056</v>
+        <v>4.512440665882448</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.71599027092691</v>
+        <v>6.889390385856228</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.36284427170728</v>
+        <v>20.96482328556084</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.78728387415584</v>
+        <v>28.44685460848778</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>32.82994710589708</v>
+        <v>32.70339457825028</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>14.06319536427005</v>
+        <v>15.62383363325688</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.94637925278719</v>
+        <v>24.83530344495925</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.12738025077173</v>
+        <v>22.45648513117676</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>32.1306547360964</v>
+        <v>22.62879696035411</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.7075228346345</v>
+        <v>7.709609790841977</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.67551952040061</v>
+        <v>16.65739856348639</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.06353316847257</v>
+        <v>20.25924555430128</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.94672492005218</v>
+        <v>37.41381463732363</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.12774031767174</v>
+        <v>46.0734795976314</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.13101596529543</v>
+        <v>45.58154656824081</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.70786306620053</v>
+        <v>16.5374549739828</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>32.67586763284849</v>
+        <v>34.00191771696858</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.06365147237183</v>
+        <v>18.05387877377916</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.94684114571817</v>
+        <v>34.98581853528731</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.12786131788697</v>
+        <v>43.35828595746996</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.13113663758251</v>
+        <v>44.3958145853446</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.70798139358723</v>
+        <v>11.99382339204844</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.67598384875465</v>
+        <v>28.46284059606253</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>14.0634935348018</v>
+        <v>10.3778047962532</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.9466877129593</v>
+        <v>27.33813122783468</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.12770318671224</v>
+        <v>32.15993656588097</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.1309786000803</v>
+        <v>34.17726891068773</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.70782443234025</v>
+        <v>3.393817127841483</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>32.67583147228977</v>
+        <v>18.84892211246372</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.74031376942533</v>
+        <v>13.48259167548482</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.86939281800031</v>
+        <v>15.81568458343773</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.77601817701484</v>
+        <v>10.61934829450427</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.89060744710153</v>
+        <v>23.51108097731</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.77068086026338</v>
+        <v>24.54957978203759</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>44.91571428926024</v>
+        <v>27.79027367110669</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.74067605332823</v>
+        <v>40.36146605740761</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.86975636247501</v>
+        <v>42.89279539335593</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.77636522931333</v>
+        <v>27.82741362298767</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.89096247523842</v>
+        <v>49.77870117408095</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.77105033460465</v>
+        <v>61.53868884279974</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.91608498681974</v>
+        <v>64.2849181072725</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.7407970516437</v>
+        <v>33.83326686783707</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.86987703152028</v>
+        <v>38.4945516906165</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.77648227688468</v>
+        <v>24.29810778149598</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.89107741042253</v>
+        <v>45.76991141204732</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.77116982875654</v>
+        <v>56.92801289055622</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.91620411628055</v>
+        <v>61.6507640927077</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.74064008958067</v>
+        <v>19.41967011680289</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.86972016973295</v>
+        <v>24.71637175035226</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.77632388063336</v>
+        <v>16.63955121217735</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.89092361693248</v>
+        <v>37.39591470502877</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.77101172305957</v>
+        <v>44.02124183138783</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.91604614514598</v>
+        <v>49.8407495933276</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>13.32593824556002</v>
+        <v>22.36164424987539</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.02280772477329</v>
+        <v>37.04766408645519</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.95684361613873</v>
+        <v>36.08460963774257</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.92489666889366</v>
+        <v>36.86598330235186</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.49380885861362</v>
+        <v>12.73647060188021</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.27506145959363</v>
+        <v>26.88920393565182</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>13.32626552044945</v>
+        <v>20.65372792820677</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.02314271073822</v>
+        <v>43.16625806341199</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.95719243663932</v>
+        <v>52.03065848859687</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.92524662813963</v>
+        <v>52.00923499105734</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.49413857052059</v>
+        <v>15.92036224478874</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.27539890168709</v>
+        <v>38.48453770594206</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>13.32638038985208</v>
+        <v>18.71281178629476</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.02325551034453</v>
+        <v>40.93412142048534</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.95730989140502</v>
+        <v>49.69510294487627</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.92536376252774</v>
+        <v>51.0963755302613</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>16.4942535966675</v>
+        <v>11.35007624884883</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.27551182521499</v>
+        <v>32.8796027258999</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>13.32622782508171</v>
+        <v>19.10761060701112</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.02310742267416</v>
+        <v>41.20354446982434</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.95715722736861</v>
+        <v>47.60587328551024</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.92521120286584</v>
+        <v>50.0272747155305</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>16.49410169953063</v>
+        <v>9.380016835314859</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.27536448469847</v>
+        <v>29.72308902816203</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.08464223318138</v>
+        <v>24.59704476654222</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.17468218494969</v>
+        <v>27.23820362006236</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.51107577900991</v>
+        <v>8.248632966622832</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.42445567293819</v>
+        <v>27.11904179473049</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.05835252194693</v>
+        <v>28.9308009097476</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>43.16283079660148</v>
+        <v>32.59432064763988</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.08499329264031</v>
+        <v>44.53957220537497</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.17503447988334</v>
+        <v>47.21715110784882</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.51141209079666</v>
+        <v>19.38779810235961</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.42479980597386</v>
+        <v>47.20886724935561</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>41.05871055177231</v>
+        <v>58.51789703720111</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.16319002240601</v>
+        <v>61.53206215648899</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.08511088302878</v>
+        <v>38.11491968131099</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.17515174913316</v>
+        <v>42.78517395774101</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.51152582769849</v>
+        <v>15.79780628115114</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.42491144315931</v>
+        <v>43.08864319686302</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.05882663453998</v>
+        <v>53.95229469793931</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.16330574892577</v>
+        <v>58.8141501888729</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>32.08495906645802</v>
+        <v>31.3626960307254</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.17500004215223</v>
+        <v>36.72305817405866</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.51137270269268</v>
+        <v>15.50238365623755</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>39.42476288675684</v>
+        <v>41.91715329193082</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>41.05867388163531</v>
+        <v>49.4643768097348</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>43.16315313959247</v>
+        <v>55.45072300065942</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.64054888118465</v>
+        <v>17.28855075314052</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.65480425494583</v>
+        <v>34.0515690878686</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.92532138329918</v>
+        <v>33.1934540775213</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.91866654050596</v>
+        <v>32.85099736505207</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.28851277011838</v>
+        <v>13.03095332393236</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>35.3796050995925</v>
+        <v>29.0235659006552</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>16.64088609543381</v>
+        <v>19.14712882738489</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.65514937807733</v>
+        <v>43.95365304375527</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>32.92568088268006</v>
+        <v>53.93126580309003</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.91902718923211</v>
+        <v>52.96015339706186</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.2888524864455</v>
+        <v>19.68499236625933</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.37995274118648</v>
+        <v>44.31083520762998</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.64100293095337</v>
+        <v>16.42167171290881</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.65526411118367</v>
+        <v>41.05997051785673</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.92580033688489</v>
+        <v>50.7145406062772</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.91914631329814</v>
+        <v>51.27035495077811</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.28896938897923</v>
+        <v>14.0628725211354</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.38006751005356</v>
+        <v>37.73785853787994</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>16.64084636792496</v>
+        <v>15.8656095279039</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.65511211051787</v>
+        <v>40.4990545632154</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>32.92564366479502</v>
+        <v>47.00366429169665</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.91898974100796</v>
+        <v>48.49488138336446</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.28881377237848</v>
+        <v>11.4366251105578</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>35.3799165314595</v>
+        <v>34.03976440703003</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.53557897555751</v>
+        <v>27.8916355480695</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.65457669451841</v>
+        <v>29.97360253420527</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.1855030982248</v>
+        <v>7.498365645587025</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.41750862812043</v>
+        <v>27.39352709303641</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>45.39126743145718</v>
+        <v>30.7155328283999</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>47.52506794173222</v>
+        <v>33.55816431688794</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.53594076726212</v>
+        <v>52.4951901738464</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.65493973382518</v>
+        <v>54.82201333766301</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.18584945148772</v>
+        <v>21.83538261727302</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.41786299977059</v>
+        <v>50.91108535820474</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.39163622642414</v>
+        <v>64.68450649280658</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>47.52543794561306</v>
+        <v>67.06731871095634</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.53606026593835</v>
+        <v>44.86257108846924</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.65505890112022</v>
+        <v>49.32146340533653</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.18596507809315</v>
+        <v>17.45571108697801</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.41797649306011</v>
+        <v>46.09832382536149</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>45.39175422494174</v>
+        <v>59.20440626480361</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.52555557732512</v>
+        <v>63.56564247296969</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.53590473085389</v>
+        <v>36.73087819903641</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.65490347173767</v>
+        <v>41.78136082573978</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.18580804318863</v>
+        <v>16.70229926696868</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.41782411215026</v>
+        <v>44.56375689053938</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>45.39159756314926</v>
+        <v>53.56447096844323</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>47.52539905600943</v>
+        <v>58.98753281500304</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2.049764148116971</v>
+        <v>21.79352561483675</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>17.84616304746537</v>
+        <v>35.85313892214704</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>18.84360666996935</v>
+        <v>37.3859630651706</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.91825293827348</v>
+        <v>36.24845326606781</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.029966916459589</v>
+        <v>20.78633344508797</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.91034110831228</v>
+        <v>33.52517509395837</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2.050114499836678</v>
+        <v>22.11845023895384</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>17.84652171357654</v>
+        <v>44.10453648385365</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>18.84398035521972</v>
+        <v>56.45328682551234</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>20.91862783372959</v>
+        <v>54.72495441915245</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>6.030320039072175</v>
+        <v>24.98633168199289</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>21.91070256263094</v>
+        <v>46.22576068670533</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>2.050240576999144</v>
+        <v>21.98729118509918</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.84664557718387</v>
+        <v>43.84818748751786</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>18.84410926442687</v>
+        <v>55.74217117061899</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.91875640284109</v>
+        <v>55.52165708090133</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>6.030446192135825</v>
+        <v>21.83323985592937</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>21.91082646837816</v>
+        <v>42.17159856877196</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>2.050070068531067</v>
+        <v>21.57324978168466</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>17.84647988674817</v>
+        <v>43.54042228563053</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>18.84393852045753</v>
+        <v>52.19164388138081</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>20.91858574181645</v>
+        <v>52.91793760166402</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>6.030276662442688</v>
+        <v>20.3093461369001</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.91066183842914</v>
+        <v>39.70522741577776</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22.79196705399497</v>
+        <v>34.13829290722805</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.9995983665966</v>
+        <v>35.66403121410313</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.90661993887605</v>
+        <v>14.88706388165138</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.93001920447558</v>
+        <v>31.5337778796875</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.69212898434365</v>
+        <v>37.93799549298571</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.91574086840409</v>
+        <v>39.99978994377432</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>22.79234329622732</v>
+        <v>56.15020953299684</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>24.99997592325263</v>
+        <v>57.962355629718</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>14.90698019426707</v>
+        <v>27.07770987864917</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.93038788845534</v>
+        <v>52.77003613959818</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.69251274907607</v>
+        <v>69.67700902562599</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.91612590699947</v>
+        <v>71.31793202096607</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.79247225747345</v>
+        <v>50.92904776606345</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.00010454330135</v>
+        <v>54.84512792340911</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.90710485245898</v>
+        <v>25.16765353770726</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.93051030097487</v>
+        <v>50.46991778942281</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.69263997593227</v>
+        <v>66.5956116056562</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.91625275511146</v>
+        <v>70.19130561208515</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.79230269308659</v>
+        <v>43.93820977635201</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>24.99993506787877</v>
+        <v>48.45464234765581</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.90693408230156</v>
+        <v>24.93723048135767</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.93034444393028</v>
+        <v>49.58278508831496</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.69246948394273</v>
+        <v>61.44385717128391</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>34.91608238868217</v>
+        <v>66.11905842767845</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.33065362196782</v>
+        <v>14.56484303206939</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.26390714160486</v>
+        <v>28.03049054337246</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.3171788199457</v>
+        <v>25.80028576176612</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.29790869321468</v>
+        <v>26.49541013290496</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.72807072732905</v>
+        <v>8.940646040955212</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.74273187584382</v>
+        <v>22.27427928439525</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13.33098751606932</v>
+        <v>17.83920321397707</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.26424889300348</v>
+        <v>39.50189750861108</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.31753475196668</v>
+        <v>47.5166149630832</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.29826577379884</v>
+        <v>47.45284009986155</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.72840707750057</v>
+        <v>16.48296017276544</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.7430761012197</v>
+        <v>38.57261329624731</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>13.33110473717884</v>
+        <v>16.19599175206741</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.26436402209743</v>
+        <v>37.61411411648525</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.31765461203952</v>
+        <v>45.46234706604004</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.29838530852037</v>
+        <v>46.85658067780753</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.72852440744312</v>
+        <v>12.04501781099502</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.74319130688392</v>
+        <v>33.13432550363606</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>13.33094840286609</v>
+        <v>11.79240301603691</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.26421224142198</v>
+        <v>32.91519349685046</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.31749810598138</v>
+        <v>38.03273595477891</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.29822889783953</v>
+        <v>40.47942322868491</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.72836888154059</v>
+        <v>5.538313403744024</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.74304041229216</v>
+        <v>25.29578325406542</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.67743409969886</v>
+        <v>19.23144254136143</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.78100426778511</v>
+        <v>21.65995660932623</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.70044321927114</v>
+        <v>5.025165220804052</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>39.84817383151275</v>
+        <v>22.60894076766165</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.61458304778967</v>
+        <v>23.41704256896764</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.73339660368671</v>
+        <v>26.98281233894236</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.6777922812954</v>
+        <v>44.2735633018243</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.78136369520386</v>
+        <v>46.79945154334901</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.7007861118969</v>
+        <v>19.90972356879449</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>39.84852468968124</v>
+        <v>46.80260325531218</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>41.61494813886883</v>
+        <v>57.49025258390748</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>43.73376290188918</v>
+        <v>60.45873310495686</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>32.67791222718882</v>
+        <v>37.94451919519327</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.78148331501076</v>
+        <v>42.51403762604714</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.70090213654768</v>
+        <v>16.31355563012449</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.84863859274597</v>
+        <v>42.7146528409656</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.61506655572092</v>
+        <v>52.89921358447727</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.73388095720291</v>
+        <v>57.76448478570757</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>32.67775671877743</v>
+        <v>26.11701665155428</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.7813279069581</v>
+        <v>31.39628088670983</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.70074538492646</v>
+        <v>11.48459469327109</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>39.84848648613362</v>
+        <v>36.85737499658619</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>41.6149101207901</v>
+        <v>43.34745152567353</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>43.73372465666272</v>
+        <v>49.37278622407871</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>10.60757719615248</v>
+        <v>2.436543276902466</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.99179333155217</v>
+        <v>10.86069844581966</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.98543318801961</v>
+        <v>8.741286324071392</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.9381478463768</v>
+        <v>9.189855173308541</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.36660423410347</v>
+        <v>7.983709516199053</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.84077963608931</v>
+        <v>17.07418569980102</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>10.60790322264846</v>
+        <v>6.286892014737401</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.9921269750181</v>
+        <v>22.51365706627727</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.98578067937462</v>
+        <v>30.61102384708458</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.93849648016381</v>
+        <v>30.44723071071321</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>14.36693281738162</v>
+        <v>17.26238013887842</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.84111585559553</v>
+        <v>34.73703490589648</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.60801837480247</v>
+        <v>2.140904164785194</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.99224012452819</v>
+        <v>18.09878910104754</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.98589845467945</v>
+        <v>25.83147993443636</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.93861393867629</v>
+        <v>27.18655925047615</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>14.36704798993937</v>
+        <v>10.23727955993187</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.84122899100937</v>
+        <v>26.67795702010144</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>10.60786443625273</v>
+        <v>1.950975996195378</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>24.9920905400325</v>
+        <v>17.86887580517512</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.98574431161514</v>
+        <v>22.79004429963518</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.9384598772272</v>
+        <v>25.11689195243079</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>14.36689500563562</v>
+        <v>7.916846904564917</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.84108044340614</v>
+        <v>23.28300467007659</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.7174017271258</v>
+        <v>13.84378733996621</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.7962790263213</v>
+        <v>16.48263479177308</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.21901631871641</v>
+        <v>2.302092618053759</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.83435307803106</v>
+        <v>15.491693807244</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.50613370149163</v>
+        <v>16.2351680395528</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>40.59855053671008</v>
+        <v>19.57687025051765</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.71775157695986</v>
+        <v>40.27767215729338</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.79663011620996</v>
+        <v>43.14692374483516</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.21935149858153</v>
+        <v>19.8738994745259</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.83469598654046</v>
+        <v>41.98582905599663</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>38.50649050859246</v>
+        <v>52.64285542177899</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>40.5989085462099</v>
+        <v>55.52980761333966</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.71786934995112</v>
+        <v>31.16960286822373</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.79674757072149</v>
+        <v>36.15147358138104</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.21946545589925</v>
+        <v>13.8467077844508</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.8348079074148</v>
+        <v>35.43424499021974</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>38.50660685015147</v>
+        <v>45.40557562261041</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>40.59902453489403</v>
+        <v>50.25600337151741</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.71771634604776</v>
+        <v>23.70036188985057</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.79659465554999</v>
+        <v>29.32567333120184</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.21931115921848</v>
+        <v>12.25729571097082</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.83465806385423</v>
+        <v>33.04957892687206</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>38.50645282094062</v>
+        <v>39.21944782119282</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>40.59887062724179</v>
+        <v>45.17082622489276</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1.465114858713612</v>
+        <v>4.765843217162779</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.23079934269809</v>
+        <v>16.07933871015554</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.21706592839123</v>
+        <v>15.30157060064364</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>20.29234637275597</v>
+        <v>15.43470186263496</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.433767607442736</v>
+        <v>6.111271613887791</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.28468417400472</v>
+        <v>16.47949353880695</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1.465465062026666</v>
+        <v>6.262497621069198</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>17.2311578511887</v>
+        <v>25.50116826135037</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>18.21743944616167</v>
+        <v>35.41886195338597</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>20.29272110351799</v>
+        <v>35.03900635246885</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>5.434120577866402</v>
+        <v>11.42091603768158</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>21.28504546717983</v>
+        <v>30.28540431826131</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1.465591299906453</v>
+        <v>7.360817195834624</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>17.23128188199951</v>
+        <v>26.50772893781631</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>18.21756852384005</v>
+        <v>35.91123872783884</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>20.29284984206474</v>
+        <v>37.04667579303072</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>5.434246891659987</v>
+        <v>9.33803639141021</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.28516953979467</v>
+        <v>27.33389980258879</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1.465420624972705</v>
+        <v>6.023455665260212</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>17.23111601225002</v>
+        <v>25.24388813273518</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>18.21739760441534</v>
+        <v>31.47619892360091</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>20.29267900340343</v>
+        <v>33.52975184548356</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>5.434077188478511</v>
+        <v>7.186632919046158</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.28500472430233</v>
+        <v>24.21462492089213</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>22.15321545515798</v>
+        <v>14.86432247013725</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.36178010586423</v>
+        <v>17.9450704438298</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.3392196908013</v>
+        <v>-2.143755070672956</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.33373620462854</v>
+        <v>12.01361551622737</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>32.08324640186488</v>
+        <v>15.8237560618103</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.30772066887214</v>
+        <v>19.31057606270339</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>22.15359152604699</v>
+        <v>37.86528057337168</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>24.36215749410561</v>
+        <v>41.31145597598515</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>14.3395798150267</v>
+        <v>11.65947700664961</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>30.33410474859835</v>
+        <v>34.86421846310098</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>32.08363001643905</v>
+        <v>49.05765363895594</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.30810556032681</v>
+        <v>52.20197219646263</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>22.15372065588288</v>
+        <v>33.69709097401689</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.3622862836538</v>
+        <v>39.25387296865568</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>14.33970463208971</v>
+        <v>10.821646810103</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.33422732601469</v>
+        <v>33.67216398730062</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>32.08375740985781</v>
+        <v>47.03072633369443</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>34.30823257593953</v>
+        <v>52.1357305478617</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>22.1535509084801</v>
+        <v>26.13197990031766</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>24.36211662313813</v>
+        <v>32.25825141169886</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>14.33953369192182</v>
+        <v>9.451683792220262</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.33406128706974</v>
+        <v>31.61516941174616</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>32.08358673873992</v>
+        <v>40.780673589047</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.30806202822504</v>
+        <v>46.9356960160767</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>18.42428663558276</v>
+        <v>20.19150796680347</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.10368114985455</v>
+        <v>36.75539987562139</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.51713334439623</v>
+        <v>38.34852230482318</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.43163178387144</v>
+        <v>38.44863428021689</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>21.78685546130769</v>
+        <v>14.79644056617895</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.54678521607114</v>
+        <v>30.4099622090289</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.4246167125117</v>
+        <v>20.12251282838558</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.10401895850321</v>
+        <v>44.45019110142502</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>34.51748528691348</v>
+        <v>56.46202852745981</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.43198483223603</v>
+        <v>55.82094749661491</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>21.78718798932118</v>
+        <v>19.22848499569079</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.54712549355801</v>
+        <v>43.16828445514859</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>18.42473075828844</v>
+        <v>17.57813247934186</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>33.10413094617189</v>
+        <v>41.78474250527947</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.5176018657961</v>
+        <v>53.53013882375971</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.43210109704582</v>
+        <v>54.33463144524544</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>21.78730214719477</v>
+        <v>14.29706336565551</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.54723756130865</v>
+        <v>37.35684708093802</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>18.42457879126671</v>
+        <v>16.78439562800548</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.10398342571882</v>
+        <v>41.07301926787764</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.51744985001719</v>
+        <v>50.01923108122887</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.43194917335065</v>
+        <v>51.7661955634785</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.78715093632194</v>
+        <v>11.89221781588745</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.5470908737306</v>
+        <v>33.99245536873168</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>37.84276546758834</v>
+        <v>30.66437512497543</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.87870368241517</v>
+        <v>32.71180007704605</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.49150556345995</v>
+        <v>10.07687323944492</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>44.38922381231845</v>
+        <v>29.77381731986629</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>46.47965120768795</v>
+        <v>34.45598233149258</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>48.53080794676495</v>
+        <v>37.3557052446415</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>37.84311965794042</v>
+        <v>52.35579069065646</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>39.87905907456869</v>
+        <v>54.50426637857272</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.49184453508047</v>
+        <v>22.31991350092369</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>44.38957062490752</v>
+        <v>50.86924628687964</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>46.48001219524032</v>
+        <v>65.62021842779956</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>48.53117009795567</v>
+        <v>67.9396351518406</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>37.84323632677519</v>
+        <v>45.57006443949773</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>39.87917542845437</v>
+        <v>49.74376797654955</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.49195745291487</v>
+        <v>18.42210170901265</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>44.38968145370554</v>
+        <v>46.59421039297587</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>46.48012740517911</v>
+        <v>60.74043999184642</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>48.53128495822482</v>
+        <v>64.93807352672523</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>37.84308524848161</v>
+        <v>38.14541185929936</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>39.879024447666</v>
+        <v>42.93181509431342</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>29.49180491564657</v>
+        <v>17.55526958252453</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>44.38953345510811</v>
+        <v>45.06583043608535</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>46.47997528975949</v>
+        <v>55.42744145336015</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>48.53113297407958</v>
+        <v>60.68612850141537</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>14.13448976286534</v>
+        <v>11.31573994917288</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.05229320418662</v>
+        <v>24.74550378736566</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>30.13998211637351</v>
+        <v>23.58266494343559</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>32.11631425677575</v>
+        <v>23.72613222857323</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>17.57793905502005</v>
+        <v>10.25181008914229</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>32.57666730933528</v>
+        <v>23.34202258030511</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>14.13482398138776</v>
+        <v>16.11981185634491</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.05263528052662</v>
+        <v>37.85647082100945</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>30.14033837768997</v>
+        <v>46.90442779280532</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>32.11667166411013</v>
+        <v>46.23421384724352</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>17.57827570315371</v>
+        <v>18.82938778150226</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>32.57701183259064</v>
+        <v>40.76788419594975</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>14.13494103335668</v>
+        <v>15.35541165622417</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.05275024492526</v>
+        <v>36.89489247187954</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>30.14045805744655</v>
+        <v>45.74985193382643</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>32.11679102003124</v>
+        <v>46.52823108459346</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>17.57839284587673</v>
+        <v>14.87465864926255</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>32.57712685552792</v>
+        <v>35.85404998117122</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>14.1347848165416</v>
+        <v>9.84394540303391</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.05259856957642</v>
+        <v>31.02060020473675</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>30.14030166229016</v>
+        <v>37.13597592014018</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>32.11663472123215</v>
+        <v>38.99792240567638</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>17.5782374847545</v>
+        <v>7.322155014664087</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>32.57697611364459</v>
+        <v>26.91224960379499</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>33.54706878050499</v>
+        <v>21.20440024673884</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>35.64638484890166</v>
+        <v>23.37561907566083</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>25.44357413818495</v>
+        <v>3.127471653179679</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>40.57552890057175</v>
+        <v>20.24150540428243</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>42.36758924314823</v>
+        <v>21.91284127592133</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>44.48252453950555</v>
+        <v>25.15909533271022</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>33.54742726419717</v>
+        <v>47.35042931726383</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>35.64674457558132</v>
+        <v>49.57099449514217</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>25.44391730330425</v>
+        <v>18.93753757333213</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>40.57588003089165</v>
+        <v>45.45973957249326</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>42.36795460785081</v>
+        <v>56.97415420956018</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>44.48289110903742</v>
+        <v>59.57597262400567</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>33.54754701099291</v>
+        <v>41.52065186560083</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>35.64686399768713</v>
+        <v>45.77772047456662</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>25.44403316986099</v>
+        <v>15.79697839559871</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.57599378018305</v>
+        <v>41.86645786463563</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>42.36807285746259</v>
+        <v>52.85238181741721</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>44.48300899850034</v>
+        <v>57.34574351572361</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>33.54739166120007</v>
+        <v>28.57727571076296</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.64670874947273</v>
+        <v>33.57351030521187</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.44387654584084</v>
+        <v>9.734022009981455</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>40.57584178954335</v>
+        <v>34.70512123834436</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>42.36791654070163</v>
+        <v>41.98717137865192</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>44.48285281720354</v>
+        <v>47.67573401894886</v>
       </c>
     </row>
   </sheetData>
